--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="7">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -77,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -171,6 +171,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
